--- a/Bills/2023/3/GEORGEAN ENTERPRISES - DWARKA 22 DIMTS DEPOT.xlsx
+++ b/Bills/2023/3/GEORGEAN ENTERPRISES - DWARKA 22 DIMTS DEPOT.xlsx
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="C12" s="11" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12" t="n">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="12" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I12" s="150" t="n">
-        <v>161302</v>
+        <v>0</v>
       </c>
       <c r="J12" s="168" t="n"/>
       <c r="K12" s="166" t="n"/>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="C13" s="11" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I13" s="150" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E14" s="12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12" t="n">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I14" s="150" t="n">
-        <v>23677</v>
+        <v>0</v>
       </c>
       <c r="J14" s="168" t="n"/>
       <c r="K14" s="166" t="n"/>
@@ -2496,13 +2496,13 @@
         </is>
       </c>
       <c r="C15" s="11" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I15" s="150" t="n">
         <v>0</v>
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="C18" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12" t="n">
         <v>0</v>
@@ -2622,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I18" s="150" t="n">
-        <v>8943</v>
+        <v>0</v>
       </c>
       <c r="J18" s="168" t="n"/>
       <c r="K18" s="166" t="n"/>
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="C19" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19" s="12" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I19" s="150" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="C20" s="11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="12" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="150" t="n">
-        <v>1578</v>
+        <v>0</v>
       </c>
       <c r="J20" s="168" t="n"/>
       <c r="K20" s="166" t="n"/>
@@ -2718,10 +2718,10 @@
         </is>
       </c>
       <c r="C21" s="11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="12" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="150" t="n">
         <v>0</v>
@@ -3066,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I30" s="150" t="n">
-        <v>5962</v>
+        <v>0</v>
       </c>
       <c r="J30" s="168" t="n"/>
       <c r="K30" s="166" t="n"/>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I31" s="150" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="150" t="n">
-        <v>789</v>
+        <v>0</v>
       </c>
       <c r="J32" s="168" t="n"/>
       <c r="K32" s="166" t="n"/>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="150" t="n">
         <v>0</v>
